--- a/data/trans_orig/MCS12_SP_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0FD462-73D9-4963-9281-0E68DB96F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F4E55D-9116-49B3-AA3A-2C1149B87E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{915C5587-53B7-4151-B88A-B7517AC6C14F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{47B24B10-A804-415A-A1E8-B1E15B6FCE45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>77,49%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>17,41%</t>
@@ -419,450 +362,354 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>27,43%</t>
   </si>
   <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
     <t>24,84%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>75,16%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
     <t>72,44%</t>
   </si>
   <si>
@@ -1013,301 +860,259 @@
     <t>78,07%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>Población en el primer cuartil (48.3888) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF7A26-34FB-4BFD-BE26-A4B3D3F958A1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3B4D36-DC72-4249-BF44-71F77D32A0F8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1837,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D4" s="7">
-        <v>8541</v>
+        <v>97353</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1852,10 +1657,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="I4" s="7">
-        <v>13173</v>
+        <v>141028</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1867,10 +1672,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="N4" s="7">
-        <v>21714</v>
+        <v>238381</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1888,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>97</v>
+        <v>582</v>
       </c>
       <c r="D5" s="7">
-        <v>106817</v>
+        <v>596659</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1903,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>113</v>
+        <v>553</v>
       </c>
       <c r="I5" s="7">
-        <v>99582</v>
+        <v>547323</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1918,10 +1723,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1135</v>
       </c>
       <c r="N5" s="7">
-        <v>206399</v>
+        <v>1143982</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1939,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1954,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1969,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1992,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="D7" s="7">
-        <v>88812</v>
+        <v>187571</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2007,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="I7" s="7">
-        <v>127855</v>
+        <v>287532</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2022,10 +1827,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>437</v>
       </c>
       <c r="N7" s="7">
-        <v>216667</v>
+        <v>475103</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2043,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>485</v>
+        <v>722</v>
       </c>
       <c r="D8" s="7">
-        <v>489842</v>
+        <v>774229</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2058,10 +1863,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>440</v>
+        <v>645</v>
       </c>
       <c r="I8" s="7">
-        <v>447741</v>
+        <v>680861</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2073,10 +1878,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>925</v>
+        <v>1367</v>
       </c>
       <c r="N8" s="7">
-        <v>937583</v>
+        <v>1455090</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2094,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2109,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2124,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2147,10 +1952,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7">
-        <v>187571</v>
+        <v>118137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2162,10 +1967,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="I10" s="7">
-        <v>287532</v>
+        <v>177601</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2177,10 +1982,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>437</v>
+        <v>292</v>
       </c>
       <c r="N10" s="7">
-        <v>475103</v>
+        <v>295738</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2198,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>722</v>
+        <v>532</v>
       </c>
       <c r="D11" s="7">
-        <v>774229</v>
+        <v>560372</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2213,10 +2018,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>645</v>
+        <v>513</v>
       </c>
       <c r="I11" s="7">
-        <v>680861</v>
+        <v>506240</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2228,10 +2033,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1367</v>
+        <v>1045</v>
       </c>
       <c r="N11" s="7">
-        <v>1455090</v>
+        <v>1066612</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2249,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2264,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2279,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2302,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7">
-        <v>118137</v>
+        <v>207478</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2317,10 +2122,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="I13" s="7">
-        <v>177601</v>
+        <v>290976</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2332,10 +2137,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>292</v>
+        <v>490</v>
       </c>
       <c r="N13" s="7">
-        <v>295738</v>
+        <v>498454</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2353,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>532</v>
+        <v>783</v>
       </c>
       <c r="D14" s="7">
-        <v>560372</v>
+        <v>734744</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2368,10 +2173,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>513</v>
+        <v>718</v>
       </c>
       <c r="I14" s="7">
-        <v>506240</v>
+        <v>747636</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2383,10 +2188,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1045</v>
+        <v>1501</v>
       </c>
       <c r="N14" s="7">
-        <v>1066612</v>
+        <v>1482380</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2404,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2419,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2434,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2451,55 +2256,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>211</v>
+        <v>595</v>
       </c>
       <c r="D16" s="7">
-        <v>207478</v>
+        <v>610539</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>868</v>
+      </c>
+      <c r="I16" s="7">
+        <v>897137</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>279</v>
-      </c>
-      <c r="I16" s="7">
-        <v>290976</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1463</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1507677</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>490</v>
-      </c>
-      <c r="N16" s="7">
-        <v>498454</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,49 +2313,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>783</v>
+        <v>2619</v>
       </c>
       <c r="D17" s="7">
-        <v>734744</v>
+        <v>2666004</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2429</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2482060</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>718</v>
-      </c>
-      <c r="I17" s="7">
-        <v>747636</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5048</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5148064</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1501</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1482380</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2574,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2589,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2605,171 +2410,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>595</v>
-      </c>
-      <c r="D19" s="7">
-        <v>610539</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>868</v>
-      </c>
-      <c r="I19" s="7">
-        <v>897137</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1463</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1507676</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2619</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2666005</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2429</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2482061</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5048</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5148064</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2782,8 +2431,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C954ABF-5D27-426F-86C2-74A8F6707D9B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F65AE2C-3311-4797-91EF-5EE3C0E43E77}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2799,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,49 +2549,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
-        <v>24638</v>
+        <v>141377</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="I4" s="7">
-        <v>34676</v>
+        <v>239651</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>361</v>
       </c>
       <c r="N4" s="7">
-        <v>59314</v>
+        <v>381028</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,49 +2600,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>536</v>
       </c>
       <c r="D5" s="7">
-        <v>91127</v>
+        <v>562092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>68</v>
+        <v>427</v>
       </c>
       <c r="I5" s="7">
-        <v>77229</v>
+        <v>457399</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
-        <v>163</v>
+        <v>963</v>
       </c>
       <c r="N5" s="7">
-        <v>168356</v>
+        <v>1019491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3017,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3032,10 +2681,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3055,49 +2704,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="D7" s="7">
-        <v>116739</v>
+        <v>233105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="I7" s="7">
-        <v>204975</v>
+        <v>326392</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="N7" s="7">
-        <v>321715</v>
+        <v>559497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,49 +2755,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>441</v>
+        <v>727</v>
       </c>
       <c r="D8" s="7">
-        <v>470965</v>
+        <v>784842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>359</v>
+        <v>646</v>
       </c>
       <c r="I8" s="7">
-        <v>380170</v>
+        <v>705792</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>800</v>
+        <v>1373</v>
       </c>
       <c r="N8" s="7">
-        <v>851134</v>
+        <v>1490634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3172,10 +2821,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3187,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3210,49 +2859,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7">
-        <v>233105</v>
+        <v>154157</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="I10" s="7">
-        <v>326392</v>
+        <v>240560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>503</v>
+        <v>359</v>
       </c>
       <c r="N10" s="7">
-        <v>559497</v>
+        <v>394716</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,49 +2910,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>727</v>
+        <v>550</v>
       </c>
       <c r="D11" s="7">
-        <v>784842</v>
+        <v>603466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>646</v>
+        <v>485</v>
       </c>
       <c r="I11" s="7">
-        <v>705792</v>
+        <v>536614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1373</v>
+        <v>1035</v>
       </c>
       <c r="N11" s="7">
-        <v>1490634</v>
+        <v>1140081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3327,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3342,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3365,49 +3014,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>154157</v>
+        <v>234940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="I13" s="7">
-        <v>240560</v>
+        <v>356090</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>359</v>
+        <v>559</v>
       </c>
       <c r="N13" s="7">
-        <v>394716</v>
+        <v>591030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3065,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>550</v>
+        <v>686</v>
       </c>
       <c r="D14" s="7">
-        <v>603466</v>
+        <v>712799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>485</v>
+        <v>668</v>
       </c>
       <c r="I14" s="7">
-        <v>536614</v>
+        <v>695811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1035</v>
+        <v>1354</v>
       </c>
       <c r="N14" s="7">
-        <v>1140081</v>
+        <v>1408610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3482,10 +3131,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3497,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3514,55 +3163,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>224</v>
+        <v>710</v>
       </c>
       <c r="D16" s="7">
-        <v>234940</v>
+        <v>763578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>335</v>
+        <v>1072</v>
       </c>
       <c r="I16" s="7">
-        <v>356090</v>
+        <v>1162693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
-        <v>559</v>
+        <v>1782</v>
       </c>
       <c r="N16" s="7">
-        <v>591030</v>
+        <v>1926272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3220,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>686</v>
+        <v>2499</v>
       </c>
       <c r="D17" s="7">
-        <v>712799</v>
+        <v>2663201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>668</v>
+        <v>2226</v>
       </c>
       <c r="I17" s="7">
-        <v>695811</v>
+        <v>2395616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>1354</v>
+        <v>4725</v>
       </c>
       <c r="N17" s="7">
-        <v>1408610</v>
+        <v>5058816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3637,10 +3286,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3652,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3668,171 +3317,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>710</v>
-      </c>
-      <c r="D19" s="7">
-        <v>763578</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1072</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1162693</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1782</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1926272</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2499</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2663201</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2226</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2395616</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4725</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5058816</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3845,8 +3338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE6704E-CB93-4515-9319-35E97A3F2C54}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72E7C50-609F-4CDA-A90E-97FEF59354DB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3862,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,49 +3456,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>22102</v>
+        <v>123173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="I4" s="7">
-        <v>32240</v>
+        <v>183818</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>301</v>
       </c>
       <c r="N4" s="7">
-        <v>54342</v>
+        <v>306990</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +3507,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>530</v>
       </c>
       <c r="D5" s="7">
-        <v>94444</v>
+        <v>551627</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>487</v>
       </c>
       <c r="I5" s="7">
-        <v>81120</v>
+        <v>489021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>175</v>
+        <v>1017</v>
       </c>
       <c r="N5" s="7">
-        <v>175564</v>
+        <v>1040649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4080,10 +3573,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4095,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4118,49 +3611,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7">
-        <v>101071</v>
+        <v>166661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="I7" s="7">
-        <v>151578</v>
+        <v>259020</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>248</v>
+        <v>397</v>
       </c>
       <c r="N7" s="7">
-        <v>252648</v>
+        <v>425680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,49 +3662,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>439</v>
+        <v>793</v>
       </c>
       <c r="D8" s="7">
-        <v>457183</v>
+        <v>855770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>403</v>
+        <v>738</v>
       </c>
       <c r="I8" s="7">
-        <v>407901</v>
+        <v>783893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
-        <v>842</v>
+        <v>1531</v>
       </c>
       <c r="N8" s="7">
-        <v>865085</v>
+        <v>1639664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4235,10 +3728,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4250,10 +3743,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4273,49 +3766,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>166661</v>
+        <v>141362</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="I10" s="7">
-        <v>259020</v>
+        <v>208641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="N10" s="7">
-        <v>425680</v>
+        <v>350002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,49 +3817,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>793</v>
+        <v>568</v>
       </c>
       <c r="D11" s="7">
-        <v>855770</v>
+        <v>618190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
-        <v>738</v>
+        <v>546</v>
       </c>
       <c r="I11" s="7">
-        <v>783893</v>
+        <v>576370</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>1531</v>
+        <v>1114</v>
       </c>
       <c r="N11" s="7">
-        <v>1639664</v>
+        <v>1194561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4390,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4405,10 +3898,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4428,49 +3921,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="D13" s="7">
-        <v>141362</v>
+        <v>209028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="I13" s="7">
-        <v>208641</v>
+        <v>297537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>318</v>
+        <v>476</v>
       </c>
       <c r="N13" s="7">
-        <v>350002</v>
+        <v>506565</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,49 +3972,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>568</v>
+        <v>727</v>
       </c>
       <c r="D14" s="7">
-        <v>618190</v>
+        <v>728539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
-        <v>546</v>
+        <v>688</v>
       </c>
       <c r="I14" s="7">
-        <v>576370</v>
+        <v>746242</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>1114</v>
+        <v>1415</v>
       </c>
       <c r="N14" s="7">
-        <v>1194561</v>
+        <v>1474781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4545,10 +4038,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4560,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4577,55 +4070,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>205</v>
+        <v>613</v>
       </c>
       <c r="D16" s="7">
-        <v>209028</v>
+        <v>640223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>271</v>
+        <v>879</v>
       </c>
       <c r="I16" s="7">
-        <v>297537</v>
+        <v>949015</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>476</v>
+        <v>1492</v>
       </c>
       <c r="N16" s="7">
-        <v>506565</v>
+        <v>1589239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,49 +4127,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>727</v>
+        <v>2618</v>
       </c>
       <c r="D17" s="7">
-        <v>728539</v>
+        <v>2754127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>688</v>
+        <v>2459</v>
       </c>
       <c r="I17" s="7">
-        <v>746242</v>
+        <v>2595527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>1415</v>
+        <v>5077</v>
       </c>
       <c r="N17" s="7">
-        <v>1474781</v>
+        <v>5349653</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4700,10 +4193,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4715,10 +4208,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4731,171 +4224,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>613</v>
-      </c>
-      <c r="D19" s="7">
-        <v>640223</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="7">
-        <v>879</v>
-      </c>
-      <c r="I19" s="7">
-        <v>949015</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1492</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1589239</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2618</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2754127</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2459</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2595527</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5077</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5349653</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4908,8 +4245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D754FD-A3D7-4D80-8A49-4645D89CFB66}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947A042A-E277-407A-A0E4-0E4FDBF5C245}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4925,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,49 +4363,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="D4" s="7">
-        <v>21546</v>
+        <v>128401</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="I4" s="7">
-        <v>28268</v>
+        <v>168207</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>94</v>
+        <v>524</v>
       </c>
       <c r="N4" s="7">
-        <v>49814</v>
+        <v>296608</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,49 +4414,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>87</v>
+        <v>549</v>
       </c>
       <c r="D5" s="7">
-        <v>77952</v>
+        <v>501763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
-        <v>173</v>
+        <v>878</v>
       </c>
       <c r="I5" s="7">
-        <v>100434</v>
+        <v>501654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>260</v>
+        <v>1427</v>
       </c>
       <c r="N5" s="7">
-        <v>178386</v>
+        <v>1003416</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>724</v>
       </c>
       <c r="D6" s="7">
-        <v>99498</v>
+        <v>630164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5143,10 +4480,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1227</v>
       </c>
       <c r="I6" s="7">
-        <v>128702</v>
+        <v>669861</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5158,10 +4495,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>354</v>
+        <v>1951</v>
       </c>
       <c r="N6" s="7">
-        <v>228200</v>
+        <v>1300024</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5181,49 +4518,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="D7" s="7">
-        <v>115333</v>
+        <v>170639</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>284</v>
+        <v>471</v>
       </c>
       <c r="I7" s="7">
-        <v>154328</v>
+        <v>266250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>430</v>
+        <v>673</v>
       </c>
       <c r="N7" s="7">
-        <v>269662</v>
+        <v>436889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>462</v>
+        <v>757</v>
       </c>
       <c r="D8" s="7">
-        <v>431387</v>
+        <v>1017673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>705</v>
+        <v>1035</v>
       </c>
       <c r="I8" s="7">
-        <v>434294</v>
+        <v>686589</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>1167</v>
+        <v>1792</v>
       </c>
       <c r="N8" s="7">
-        <v>865680</v>
+        <v>1704262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,10 +4620,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>608</v>
+        <v>959</v>
       </c>
       <c r="D9" s="7">
-        <v>546720</v>
+        <v>1188312</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5298,10 +4635,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>989</v>
+        <v>1506</v>
       </c>
       <c r="I9" s="7">
-        <v>588622</v>
+        <v>952839</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5313,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1597</v>
+        <v>2465</v>
       </c>
       <c r="N9" s="7">
-        <v>1135342</v>
+        <v>2141151</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5336,49 +4673,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7">
-        <v>178768</v>
+        <v>151966</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
-        <v>471</v>
+        <v>285</v>
       </c>
       <c r="I10" s="7">
-        <v>295469</v>
+        <v>389098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
-        <v>673</v>
+        <v>435</v>
       </c>
       <c r="N10" s="7">
-        <v>474238</v>
+        <v>541063</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,49 +4724,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>757</v>
+        <v>524</v>
       </c>
       <c r="D11" s="7">
-        <v>855601</v>
+        <v>550360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>1035</v>
+        <v>759</v>
       </c>
       <c r="I11" s="7">
-        <v>758265</v>
+        <v>542533</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>1792</v>
+        <v>1283</v>
       </c>
       <c r="N11" s="7">
-        <v>1613865</v>
+        <v>1092893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>959</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1034369</v>
+        <v>702326</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5453,10 +4790,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1506</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1053734</v>
+        <v>931631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5468,10 +4805,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2465</v>
+        <v>1718</v>
       </c>
       <c r="N12" s="7">
-        <v>2088103</v>
+        <v>1633956</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5491,49 +4828,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="D13" s="7">
-        <v>158953</v>
+        <v>181237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
-        <v>285</v>
+        <v>475</v>
       </c>
       <c r="I13" s="7">
-        <v>312894</v>
+        <v>302668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
-        <v>435</v>
+        <v>700</v>
       </c>
       <c r="N13" s="7">
-        <v>471847</v>
+        <v>483905</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,49 +4879,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>524</v>
+        <v>776</v>
       </c>
       <c r="D14" s="7">
-        <v>567377</v>
+        <v>741672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
-        <v>759</v>
+        <v>1079</v>
       </c>
       <c r="I14" s="7">
-        <v>559606</v>
+        <v>786605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
-        <v>1283</v>
+        <v>1855</v>
       </c>
       <c r="N14" s="7">
-        <v>1126983</v>
+        <v>1528277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,10 +4930,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="7">
-        <v>726330</v>
+        <v>922909</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5608,10 +4945,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1554</v>
       </c>
       <c r="I15" s="7">
-        <v>872500</v>
+        <v>1089273</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5623,10 +4960,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1718</v>
+        <v>2555</v>
       </c>
       <c r="N15" s="7">
-        <v>1598830</v>
+        <v>2012182</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5640,55 +4977,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>225</v>
+        <v>752</v>
       </c>
       <c r="D16" s="7">
-        <v>195489</v>
+        <v>632243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
-        <v>475</v>
+        <v>1580</v>
       </c>
       <c r="I16" s="7">
-        <v>340432</v>
+        <v>1126222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
-        <v>700</v>
+        <v>2332</v>
       </c>
       <c r="N16" s="7">
-        <v>535921</v>
+        <v>1758466</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>776</v>
+        <v>2606</v>
       </c>
       <c r="D17" s="7">
-        <v>765755</v>
+        <v>2811468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
-        <v>1079</v>
+        <v>3751</v>
       </c>
       <c r="I17" s="7">
-        <v>803582</v>
+        <v>2517381</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
-        <v>1855</v>
+        <v>6357</v>
       </c>
       <c r="N17" s="7">
-        <v>1569337</v>
+        <v>5328848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,10 +5085,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1001</v>
+        <v>3358</v>
       </c>
       <c r="D18" s="7">
-        <v>961244</v>
+        <v>3443711</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5763,10 +5100,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1554</v>
+        <v>5331</v>
       </c>
       <c r="I18" s="7">
-        <v>1144014</v>
+        <v>3643603</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5778,10 +5115,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2555</v>
+        <v>8689</v>
       </c>
       <c r="N18" s="7">
-        <v>2105258</v>
+        <v>7087314</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5794,171 +5131,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>752</v>
-      </c>
-      <c r="D19" s="7">
-        <v>670090</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1580</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1131391</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2332</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1801481</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2606</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2698072</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3751</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2656181</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6357</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5354253</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3358</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5331</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8689</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
